--- a/2des/2desfreq.xlsx
+++ b/2des/2desfreq.xlsx
@@ -14,14 +14,17 @@
   <sheets>
     <sheet name="Planejamento" sheetId="3" r:id="rId1"/>
     <sheet name="Atividades" sheetId="4" r:id="rId2"/>
-    <sheet name="Avaliações" sheetId="5" r:id="rId3"/>
+    <sheet name="PWBE" sheetId="5" r:id="rId3"/>
+    <sheet name="PWFE" sheetId="9" r:id="rId4"/>
+    <sheet name="BCD" sheetId="6" r:id="rId5"/>
+    <sheet name="INDMO" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="59">
   <si>
     <t>Aluno</t>
   </si>
@@ -83,9 +86,6 @@
     <t>Rafael Fernandes de Faria</t>
   </si>
   <si>
-    <t>Raul Machado Mariano</t>
-  </si>
-  <si>
     <t>Roberto Donisete Pereira Dias</t>
   </si>
   <si>
@@ -185,13 +185,22 @@
     <t>https://docs.google.com/spreadsheets/d/1KKVzjMZJRnLotLh8LUgdcjQmSPoznxhbauc3mcht7dw/edit?usp=sharing</t>
   </si>
   <si>
-    <t>BCD-DER1</t>
-  </si>
-  <si>
     <t>PWBE-ATV1</t>
   </si>
   <si>
     <t>Datas</t>
+  </si>
+  <si>
+    <t>VPS01</t>
+  </si>
+  <si>
+    <t>INDMO-MIT</t>
+  </si>
+  <si>
+    <t>BCD-DDL</t>
+  </si>
+  <si>
+    <t>BCD-DER</t>
   </si>
 </sst>
 </file>
@@ -280,10 +289,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,128 +525,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -651,58 +660,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="6">
         <v>44420</v>
       </c>
       <c r="C1" s="6">
+        <v>44428</v>
+      </c>
+      <c r="D1" s="6">
         <v>44424</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="E1" s="6">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -710,26 +751,50 @@
         <v>10</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -737,10 +802,16 @@
         <v>7</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -748,34 +819,67 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -783,10 +887,16 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -794,10 +904,16 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -805,25 +921,49 @@
         <v>7</v>
       </c>
       <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -831,8 +971,14 @@
       <c r="C18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -840,12 +986,18 @@
         <v>7</v>
       </c>
       <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -853,8 +1005,14 @@
       <c r="C20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -864,16 +1022,31 @@
       <c r="C21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -881,48 +1054,84 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B25">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -930,18 +1139,13 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -955,10 +1159,246 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -967,158 +1407,583 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="8"/>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/2des/2desfreq.xlsx
+++ b/2des/2desfreq.xlsx
@@ -15,16 +15,17 @@
     <sheet name="Planejamento" sheetId="3" r:id="rId1"/>
     <sheet name="Atividades" sheetId="4" r:id="rId2"/>
     <sheet name="PWBE" sheetId="5" r:id="rId3"/>
-    <sheet name="PWFE" sheetId="9" r:id="rId4"/>
-    <sheet name="BCD" sheetId="6" r:id="rId5"/>
-    <sheet name="INDMO" sheetId="8" r:id="rId6"/>
+    <sheet name="PROJ" sheetId="11" r:id="rId4"/>
+    <sheet name="PWFE" sheetId="9" r:id="rId5"/>
+    <sheet name="BCD" sheetId="6" r:id="rId6"/>
+    <sheet name="INDMO" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
   <si>
     <t>Aluno</t>
   </si>
@@ -201,6 +202,27 @@
   </si>
   <si>
     <t>BCD-DER</t>
+  </si>
+  <si>
+    <t>VPS02</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Efetividade</t>
+  </si>
+  <si>
+    <t>Criatividade</t>
+  </si>
+  <si>
+    <t>Equipe</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>Apresentação</t>
   </si>
 </sst>
 </file>
@@ -663,7 +685,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1184,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1199,9 @@
       <c r="B1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1195,6 +1219,9 @@
       <c r="B3">
         <v>20</v>
       </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1203,6 +1230,9 @@
       <c r="B4">
         <v>30</v>
       </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1211,6 +1241,9 @@
       <c r="B5">
         <v>15</v>
       </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1219,6 +1252,9 @@
       <c r="B6">
         <v>15</v>
       </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1227,6 +1263,9 @@
       <c r="B7">
         <v>15</v>
       </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1235,6 +1274,9 @@
       <c r="B8">
         <v>30</v>
       </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1243,6 +1285,9 @@
       <c r="B9">
         <v>10</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1267,6 +1312,9 @@
       <c r="B12">
         <v>15</v>
       </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1275,6 +1323,9 @@
       <c r="B13">
         <v>15</v>
       </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1283,6 +1334,9 @@
       <c r="B14">
         <v>25</v>
       </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1291,6 +1345,9 @@
       <c r="B15">
         <v>25</v>
       </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1300,23 +1357,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +1387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1340,7 +1403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1348,7 +1411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1356,7 +1419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
@@ -1372,7 +1435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
@@ -1380,7 +1443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,239 +1453,284 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G2" t="e">
+        <f>AVERAGE(B2:F2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G3" t="e">
+        <f t="shared" ref="G3:G27" si="0">AVERAGE(B3:F3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="G15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="G16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="G17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="G18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="G19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="G20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="G21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="G22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="G23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="G24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="G25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="G26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27">
-        <v>30</v>
+      <c r="G27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1743,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1647,7 +1755,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="4"/>
@@ -1658,36 +1766,48 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1695,20 +1815,23 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1716,7 +1839,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1724,20 +1847,23 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1745,30 +1871,39 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1783,26 +1918,32 @@
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B23">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1810,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1818,7 +1959,7 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1826,7 +1967,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1835,6 +1976,243 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>

--- a/2des/2desfreq.xlsx
+++ b/2des/2desfreq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="71">
   <si>
     <t>Aluno</t>
   </si>
@@ -207,12 +207,6 @@
     <t>VPS02</t>
   </si>
   <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Efetividade</t>
-  </si>
-  <si>
     <t>Criatividade</t>
   </si>
   <si>
@@ -223,13 +217,34 @@
   </si>
   <si>
     <t>Apresentação</t>
+  </si>
+  <si>
+    <t>P. Profissional</t>
+  </si>
+  <si>
+    <t>Funcionalidade</t>
+  </si>
+  <si>
+    <t>PROJ</t>
+  </si>
+  <si>
+    <t>VPR02</t>
+  </si>
+  <si>
+    <t>PTS</t>
+  </si>
+  <si>
+    <t>VPS01+P</t>
+  </si>
+  <si>
+    <t>ATV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,9 +290,21 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -303,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -311,16 +338,90 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -547,14 +648,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -617,14 +718,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -682,22 +783,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="F3" sqref="F3:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>54</v>
       </c>
@@ -707,14 +808,15 @@
       <c r="C1" s="6">
         <v>44428</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6">
         <v>44424</v>
       </c>
-      <c r="E1" s="6">
+      <c r="F1" s="6">
         <v>44438</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,14 +826,15 @@
       <c r="C2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -742,13 +845,17 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <f>B3+C3</f>
+        <v>9</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -758,14 +865,18 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
-        <v>0</v>
+      <c r="D4">
+        <f t="shared" ref="D4:D28" si="0">B4+C4</f>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -776,13 +887,17 @@
         <v>5</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -793,13 +908,17 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -810,13 +929,17 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -827,13 +950,17 @@
         <v>4</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -844,13 +971,17 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -861,13 +992,17 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -878,13 +1013,17 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -895,13 +1034,17 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -912,13 +1055,17 @@
         <v>4</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -929,13 +1076,17 @@
         <v>4</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -946,13 +1097,17 @@
         <v>4</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -960,13 +1115,17 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -977,13 +1136,17 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -994,13 +1157,17 @@
         <v>5</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1011,13 +1178,17 @@
         <v>4</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1028,13 +1199,17 @@
         <v>5</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E20">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1045,13 +1220,17 @@
         <v>5</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E21">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1062,13 +1241,17 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1079,13 +1262,17 @@
         <v>4</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E23">
         <v>5</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1096,13 +1283,17 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1113,13 +1304,17 @@
         <v>4</v>
       </c>
       <c r="D25">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E25">
         <v>5</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1130,13 +1325,17 @@
         <v>4</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E26">
         <v>5</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1147,13 +1346,17 @@
         <v>4</v>
       </c>
       <c r="D27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E27">
         <v>5</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1164,9 +1367,13 @@
         <v>3</v>
       </c>
       <c r="D28">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E28">
         <v>5</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0</v>
       </c>
     </row>
@@ -1181,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1192,7 +1399,7 @@
     <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1202,256 +1409,514 @@
       <c r="C1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <f>PROJ!G2</f>
+        <v>90</v>
+      </c>
+      <c r="E2" s="8">
+        <f>AVERAGE(B2:D2)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>20</v>
+      <c r="B3" s="8">
+        <v>66.666666666666671</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>PROJ!G3</f>
+        <v>70</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E27" si="0">AVERAGE(B3:D3)</f>
+        <v>78.8888888888889</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>30</v>
+      <c r="B4" s="8">
+        <v>100</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>PROJ!G4</f>
+        <v>95</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>15</v>
+      <c r="B5" s="8">
+        <v>50</v>
       </c>
       <c r="C5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>PROJ!G5</f>
+        <v>88</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>15</v>
+      <c r="B6" s="8">
+        <v>50</v>
       </c>
       <c r="C6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>PROJ!G6</f>
+        <v>75</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>15</v>
+      <c r="B7" s="8">
+        <v>50</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>PROJ!G7</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>30</v>
+      <c r="B8" s="8">
+        <v>100</v>
       </c>
       <c r="C8">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>PROJ!G8</f>
+        <v>75</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>10</v>
+      <c r="B9" s="8">
+        <v>33.333333333333336</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>PROJ!G9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>11.111111111111112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <f>PROJ!G10</f>
+        <v>80</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>71.1111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <f>PROJ!G11</f>
+        <v>80</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>15</v>
+      <c r="B12" s="8">
+        <v>50</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>PROJ!G12</f>
+        <v>65</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>15</v>
+      <c r="B13" s="8">
+        <v>50</v>
       </c>
       <c r="C13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>PROJ!G13</f>
+        <v>65</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>48.333333333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>25</v>
+      <c r="B14" s="8">
+        <v>83.333333333333329</v>
       </c>
       <c r="C14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <f>PROJ!G14</f>
+        <v>100</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>84.444444444444443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>25</v>
+      <c r="B15" s="8">
+        <v>83.333333333333329</v>
       </c>
       <c r="C15">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>PROJ!G15</f>
+        <v>75</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>72.777777777777771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <f>PROJ!G16</f>
+        <v>65</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>53.888888888888893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
-        <v>30</v>
+      <c r="B17" s="8">
+        <v>100</v>
       </c>
       <c r="C17">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>PROJ!G17</f>
+        <v>90</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
-        <v>30</v>
+      <c r="B18" s="8">
+        <v>100</v>
       </c>
       <c r="C18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>PROJ!G18</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <f>PROJ!G19</f>
+        <v>90</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <f>PROJ!G20</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <f>PROJ!G21</f>
+        <v>85</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>81.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <f>PROJ!G22</f>
+        <v>80</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>81.1111111111111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C23">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <f>PROJ!G23</f>
+        <v>95</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>63.888888888888893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B24" s="8">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <f>PROJ!G24</f>
+        <v>95</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>78.333333333333329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <f>PROJ!G25</f>
+        <v>75</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>72.777777777777771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="8">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <f>PROJ!G26</f>
+        <v>95</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>80.555555555555557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27">
-        <v>30</v>
+      <c r="B27" s="8">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>75</v>
+      </c>
+      <c r="D27">
+        <f>PROJ!G27</f>
+        <v>80</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E27">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1462,14 +1927,14 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
@@ -1481,256 +1946,646 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="e">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>75</v>
+      </c>
+      <c r="G2">
         <f>AVERAGE(B2:F2)</f>
-        <v>#DIV/0!</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="e">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
         <f t="shared" ref="G3:G27" si="0">AVERAGE(B3:F3)</f>
-        <v>#DIV/0!</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>75</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>75</v>
+      </c>
+      <c r="E21">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>75</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G24" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B25">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>75</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G27" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>75</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>75</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +2598,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1758,9 +2613,15 @@
       <c r="B1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="7"/>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1769,6 +2630,17 @@
       <c r="B2">
         <v>20</v>
       </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <f>PROJ!G2</f>
+        <v>90</v>
+      </c>
+      <c r="E2" s="8">
+        <f>AVERAGE(B2:D2)</f>
+        <v>53.333333333333336</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1777,6 +2649,17 @@
       <c r="B3">
         <v>30</v>
       </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <f>PROJ!G3</f>
+        <v>70</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E27" si="0">AVERAGE(B3:D3)</f>
+        <v>61.666666666666664</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1785,6 +2668,17 @@
       <c r="B4">
         <v>100</v>
       </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <f>PROJ!G4</f>
+        <v>95</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>98.333333333333329</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1793,6 +2687,17 @@
       <c r="B5">
         <v>100</v>
       </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <f>PROJ!G5</f>
+        <v>88</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>89.333333333333329</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1801,6 +2706,17 @@
       <c r="B6">
         <v>100</v>
       </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <f>PROJ!G6</f>
+        <v>75</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>91.666666666666671</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1809,6 +2725,17 @@
       <c r="B7">
         <v>90</v>
       </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <f>PROJ!G7</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>93.333333333333329</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1817,6 +2744,17 @@
       <c r="B8">
         <v>40</v>
       </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <f>PROJ!G8</f>
+        <v>75</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1825,6 +2763,17 @@
       <c r="B9">
         <v>15</v>
       </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <f>PROJ!G9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>18.333333333333332</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1833,6 +2782,17 @@
       <c r="B10">
         <v>30</v>
       </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <f>PROJ!G10</f>
+        <v>80</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1841,6 +2801,17 @@
       <c r="B11">
         <v>70</v>
       </c>
+      <c r="C11">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <f>PROJ!G11</f>
+        <v>80</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>73.333333333333329</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1849,6 +2820,17 @@
       <c r="B12">
         <v>65</v>
       </c>
+      <c r="C12">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <f>PROJ!G12</f>
+        <v>65</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1857,6 +2839,17 @@
       <c r="B13">
         <v>65</v>
       </c>
+      <c r="C13">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <f>PROJ!G13</f>
+        <v>65</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>71.666666666666671</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1865,6 +2858,17 @@
       <c r="B14">
         <v>90</v>
       </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <f>PROJ!G14</f>
+        <v>100</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>96.666666666666671</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1873,6 +2877,17 @@
       <c r="B15">
         <v>20</v>
       </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <f>PROJ!G15</f>
+        <v>75</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1881,106 +2896,911 @@
       <c r="B16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f>PROJ!G16</f>
+        <v>65</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>31.666666666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <f>PROJ!G17</f>
+        <v>90</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <f>PROJ!G18</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <f>PROJ!G19</f>
+        <v>90</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <f>PROJ!G20</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <f>PROJ!G21</f>
+        <v>85</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <f>PROJ!G22</f>
+        <v>80</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <f>PROJ!G23</f>
+        <v>95</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <f>PROJ!G24</f>
+        <v>95</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>81.666666666666671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B25">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <f>PROJ!G25</f>
+        <v>75</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <f>PROJ!G26</f>
+        <v>95</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B27">
         <v>30</v>
       </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <f>PROJ!G27</f>
+        <v>80</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E27">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10">
+        <f>Atividades!D3</f>
+        <v>9</v>
+      </c>
+      <c r="C2" s="11">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <f>C2+B2</f>
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <f>PROJ!G2</f>
+        <v>90</v>
+      </c>
+      <c r="F2" s="8">
+        <f>AVERAGE(D2:E2)</f>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10">
+        <f>Atividades!D4</f>
+        <v>12</v>
+      </c>
+      <c r="C3" s="11">
+        <v>91</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D27" si="0">C3+B3</f>
+        <v>103</v>
+      </c>
+      <c r="E3">
+        <f>PROJ!G3</f>
+        <v>70</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F27" si="1">AVERAGE(D3:E3)</f>
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10">
+        <f>Atividades!D5</f>
+        <v>15</v>
+      </c>
+      <c r="C4" s="11">
+        <v>97</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="E4">
+        <f>PROJ!G4</f>
+        <v>95</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="1"/>
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
+        <f>Atividades!D6</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E5">
+        <f>PROJ!G5</f>
+        <v>88</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10">
+        <f>Atividades!D7</f>
+        <v>7</v>
+      </c>
+      <c r="C6" s="11">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="E6">
+        <f>PROJ!G6</f>
+        <v>75</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="10">
+        <f>Atividades!D8</f>
+        <v>11</v>
+      </c>
+      <c r="C7" s="11">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="E7">
+        <f>PROJ!G7</f>
+        <v>100</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10">
+        <f>Atividades!D9</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="11">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <f>PROJ!G8</f>
+        <v>75</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="10">
+        <f>Atividades!D10</f>
+        <v>5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <f>PROJ!G9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10">
+        <f>Atividades!D11</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="11">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E10">
+        <f>PROJ!G10</f>
+        <v>80</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10">
+        <f>Atividades!D12</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <f>PROJ!G11</f>
+        <v>80</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10">
+        <f>Atividades!D13</f>
+        <v>11</v>
+      </c>
+      <c r="C12" s="11">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E12">
+        <f>PROJ!G12</f>
+        <v>65</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10">
+        <f>Atividades!D14</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="11">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <f>PROJ!G13</f>
+        <v>65</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10">
+        <f>Atividades!D15</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="11">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="E14">
+        <f>PROJ!G14</f>
+        <v>100</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10">
+        <f>Atividades!D16</f>
+        <v>4</v>
+      </c>
+      <c r="C15" s="11">
+        <v>71</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <f>PROJ!G15</f>
+        <v>75</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="10">
+        <f>Atividades!D17</f>
+        <v>9</v>
+      </c>
+      <c r="C16" s="11">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <f>PROJ!G16</f>
+        <v>65</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="10">
+        <f>Atividades!D18</f>
+        <v>13</v>
+      </c>
+      <c r="C17" s="11">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="E17">
+        <f>PROJ!G17</f>
+        <v>90</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="10">
+        <f>Atividades!D19</f>
+        <v>11</v>
+      </c>
+      <c r="C18" s="11">
+        <v>91</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <f>PROJ!G18</f>
+        <v>100</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="10">
+        <f>Atividades!D20</f>
+        <v>12</v>
+      </c>
+      <c r="C19" s="11">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <f>PROJ!G19</f>
+        <v>90</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="10">
+        <f>Atividades!D21</f>
+        <v>15</v>
+      </c>
+      <c r="C20" s="11">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="E20">
+        <f>PROJ!G20</f>
+        <v>100</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="10">
+        <f>Atividades!D22</f>
+        <v>14</v>
+      </c>
+      <c r="C21" s="11">
+        <v>65</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E21">
+        <f>PROJ!G21</f>
+        <v>85</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10">
+        <f>Atividades!D23</f>
+        <v>11</v>
+      </c>
+      <c r="C22" s="11">
+        <v>65</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="E22">
+        <f>PROJ!G22</f>
+        <v>80</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10">
+        <f>Atividades!D24</f>
+        <v>7</v>
+      </c>
+      <c r="C23" s="11">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <f>PROJ!G23</f>
+        <v>95</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10">
+        <f>Atividades!D25</f>
+        <v>13</v>
+      </c>
+      <c r="C24" s="11">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E24">
+        <f>PROJ!G24</f>
+        <v>95</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="1"/>
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10">
+        <f>Atividades!D26</f>
+        <v>11</v>
+      </c>
+      <c r="C25" s="11">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <f>PROJ!G25</f>
+        <v>75</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="1"/>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="10">
+        <f>Atividades!D27</f>
+        <v>12</v>
+      </c>
+      <c r="C26" s="11">
+        <v>59</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E26">
+        <f>PROJ!G26</f>
+        <v>95</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="10">
+        <f>Atividades!D28</f>
+        <v>11</v>
+      </c>
+      <c r="C27" s="11">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E27">
+        <f>PROJ!G27</f>
+        <v>80</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="1"/>
+        <v>73.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F27">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1988,380 +3808,434 @@
     <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <f>Atividades!F3</f>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>PROJ!G2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <f>Atividades!F4</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f>PROJ!G3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <f>Atividades!F5</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>PROJ!G4</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <f>Atividades!F6</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>PROJ!G5</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <f>Atividades!F7</f>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f>PROJ!G6</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <f>Atividades!F8</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>PROJ!G7</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <f>Atividades!F9</f>
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f>PROJ!G8</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <f>Atividades!F10</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>PROJ!G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>Atividades!F11</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>PROJ!G10</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f>Atividades!F12</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>PROJ!G11</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <f>Atividades!F13</f>
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f>PROJ!G12</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f>Atividades!F14</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>PROJ!G13</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <f>Atividades!F15</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>PROJ!G14</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f>Atividades!F16</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>PROJ!G15</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <f>Atividades!F17</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>PROJ!G16</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <f>Atividades!F18</f>
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f>PROJ!G17</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <f>Atividades!F19</f>
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <f>PROJ!G18</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>Atividades!F20</f>
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <f>PROJ!G19</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <f>Atividades!F21</f>
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <f>PROJ!G20</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>Atividades!F22</f>
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <f>PROJ!G21</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <f>Atividades!F23</f>
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <f>PROJ!G22</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <f>Atividades!F24</f>
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <f>PROJ!G23</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <f>Atividades!F25</f>
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <f>PROJ!G24</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B25">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <f>Atividades!F26</f>
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <f>PROJ!G25</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B26">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <f>Atividades!F27</f>
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f>PROJ!G26</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B27">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
+      <c r="C27" s="4">
+        <f>Atividades!F28</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>PROJ!G27</f>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
